--- a/src/test/resources/TestData/DSAlgo_Login.xlsx
+++ b/src/test/resources/TestData/DSAlgo_Login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arpanagodi/eclipse-workspace/DsAlgoCucumberProject/src/test/resources/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9425C68-820A-CB4C-A163-0E2A746FD059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF482303-269F-6546-84D9-80335779D3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{8E2D4404-83D0-2F4C-AA1C-5B041BF4177D}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16160" xr2:uid="{8E2D4404-83D0-2F4C-AA1C-5B041BF4177D}"/>
   </bookViews>
   <sheets>
     <sheet name="Logindetails" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>dsalgoproject81</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>password_confirmation</t>
-  </si>
-  <si>
-    <t>%%%</t>
   </si>
   <si>
     <t>pythonCode</t>
@@ -499,9 +496,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD40F0C-A74F-5147-BF75-847F590081C9}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -548,11 +545,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{532AE619-3AE4-D148-9E71-CB579296EBC4}"/>
@@ -565,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9127B11B-D041-2242-9C87-479135CD1459}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,10 +569,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -593,15 +585,15 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
